--- a/esp32-shield/manufacturing/esp32_shield_v1.1/BOM and CPL/BOM.xlsx
+++ b/esp32-shield/manufacturing/esp32_shield_v1.1/BOM and CPL/BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>Qty</t>
   </si>
@@ -169,9 +169,6 @@
     <t>J9</t>
   </si>
   <si>
-    <t>MCU board</t>
-  </si>
-  <si>
     <t>PinHeader_1x13_P2.54mm_Vertical</t>
   </si>
   <si>
@@ -199,9 +196,6 @@
     <t>C22775</t>
   </si>
   <si>
-    <t xml:space="preserve"> C8598</t>
-  </si>
-  <si>
     <t>C72041</t>
   </si>
   <si>
@@ -218,6 +212,18 @@
   </si>
   <si>
     <t>C2146</t>
+  </si>
+  <si>
+    <t>C701342</t>
+  </si>
+  <si>
+    <t>C8598</t>
+  </si>
+  <si>
+    <t>C2761795</t>
+  </si>
+  <si>
+    <t>DNP/MCU board</t>
   </si>
 </sst>
 </file>
@@ -509,7 +515,7 @@
   <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -537,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -568,7 +574,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -602,7 +608,7 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -619,7 +625,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -653,7 +659,7 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -670,7 +676,7 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -687,7 +693,7 @@
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -703,6 +709,9 @@
       <c r="D10" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -717,6 +726,9 @@
       <c r="D11" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -749,7 +761,7 @@
         <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
@@ -766,7 +778,7 @@
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
@@ -783,7 +795,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
@@ -800,7 +812,7 @@
         <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -817,7 +829,7 @@
         <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -828,10 +840,13 @@
         <v>50</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>52</v>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -839,13 +854,13 @@
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>4</v>
